--- a/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_pressure.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,1327 +483,3163 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_low_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.57893195797161</v>
+        <v>2.746854450843532</v>
       </c>
       <c r="C2" t="n">
-        <v>13.32849064887864</v>
+        <v>3.423472572964977</v>
       </c>
       <c r="D2" t="n">
-        <v>16.88</v>
+        <v>-19.76</v>
       </c>
       <c r="E2" t="n">
-        <v>3.03147074018614</v>
+        <v>0.8073451028370479</v>
       </c>
       <c r="F2" t="n">
-        <v>2.284574169138367</v>
+        <v>0.9829869871027518</v>
       </c>
       <c r="G2" t="n">
-        <v>11.0709263244315</v>
+        <v>1.785011082545507</v>
       </c>
       <c r="H2" t="n">
-        <v>10.30387657782656</v>
+        <v>1.59439308947301</v>
       </c>
       <c r="I2" t="n">
-        <v>19.37811348945965</v>
+        <v>4.008677700890911</v>
       </c>
       <c r="J2" t="n">
-        <v>18.16920879227334</v>
+        <v>5.167404553530308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.26679029523509</v>
+        <v>2.408507848328482</v>
       </c>
       <c r="C3" t="n">
-        <v>11.40864607672706</v>
+        <v>2.040091166615808</v>
       </c>
       <c r="D3" t="n">
-        <v>16.29</v>
+        <v>18.06</v>
       </c>
       <c r="E3" t="n">
-        <v>2.84609535104801</v>
+        <v>0.781788128366114</v>
       </c>
       <c r="F3" t="n">
-        <v>2.095957311118259</v>
+        <v>0.4287364085460892</v>
       </c>
       <c r="G3" t="n">
-        <v>9.030136918784471</v>
+        <v>1.314670645764888</v>
       </c>
       <c r="H3" t="n">
-        <v>8.833051391785894</v>
+        <v>1.37910039795024</v>
       </c>
       <c r="I3" t="n">
-        <v>16.8464037929815</v>
+        <v>3.471266543098551</v>
       </c>
       <c r="J3" t="n">
-        <v>15.96501413927995</v>
+        <v>2.801133519872833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.58648846916122</v>
+        <v>57.24114643310305</v>
       </c>
       <c r="C4" t="n">
-        <v>17.10340714559398</v>
+        <v>69.82560260523744</v>
       </c>
       <c r="D4" t="n">
-        <v>14.52</v>
+        <v>-18.02</v>
       </c>
       <c r="E4" t="n">
-        <v>2.714631752019953</v>
+        <v>8.968418763841681</v>
       </c>
       <c r="F4" t="n">
-        <v>2.599849710609341</v>
+        <v>12.54984073948118</v>
       </c>
       <c r="G4" t="n">
-        <v>15.76910579061132</v>
+        <v>44.57486879826078</v>
       </c>
       <c r="H4" t="n">
-        <v>12.82383617852208</v>
+        <v>41.75579465268432</v>
       </c>
       <c r="I4" t="n">
-        <v>23.27491724299527</v>
+        <v>66.96601879587261</v>
       </c>
       <c r="J4" t="n">
-        <v>22.6997708216553</v>
+        <v>95.47288777185619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.29768755581978</v>
+        <v>15.57893195797161</v>
       </c>
       <c r="C5" t="n">
-        <v>14.33096792174175</v>
+        <v>13.32849064887864</v>
       </c>
       <c r="D5" t="n">
-        <v>13.72</v>
+        <v>16.88</v>
       </c>
       <c r="E5" t="n">
-        <v>2.687406357533667</v>
+        <v>3.03147074018614</v>
       </c>
       <c r="F5" t="n">
-        <v>2.360031313591555</v>
+        <v>2.284574169138367</v>
       </c>
       <c r="G5" t="n">
-        <v>12.47091012373386</v>
+        <v>11.0709263244315</v>
       </c>
       <c r="H5" t="n">
-        <v>10.81165771892632</v>
+        <v>10.30387657782656</v>
       </c>
       <c r="I5" t="n">
-        <v>19.8622924728839</v>
+        <v>19.37811348945965</v>
       </c>
       <c r="J5" t="n">
-        <v>19.70026133823401</v>
+        <v>18.16920879227334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.373011028216816</v>
+        <v>13.26679029523509</v>
       </c>
       <c r="C6" t="n">
-        <v>5.739298815154657</v>
+        <v>11.40864607672706</v>
       </c>
       <c r="D6" t="n">
-        <v>11.04</v>
+        <v>16.29</v>
       </c>
       <c r="E6" t="n">
-        <v>0.85878033158883</v>
+        <v>2.84609535104801</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9001153277896506</v>
+        <v>2.095957311118259</v>
       </c>
       <c r="G6" t="n">
-        <v>5.790565687707545</v>
+        <v>9.030136918784471</v>
       </c>
       <c r="H6" t="n">
-        <v>4.259064489910421</v>
+        <v>8.833051391785894</v>
       </c>
       <c r="I6" t="n">
-        <v>7.866953742248564</v>
+        <v>16.8464037929815</v>
       </c>
       <c r="J6" t="n">
-        <v>7.601806851232762</v>
+        <v>15.96501413927995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.873341718418323</v>
+        <v>19.58648846916122</v>
       </c>
       <c r="C7" t="n">
-        <v>1.697504142173806</v>
+        <v>17.10340714559398</v>
       </c>
       <c r="D7" t="n">
-        <v>10.36</v>
+        <v>14.52</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1612638189510597</v>
+        <v>2.714631752019953</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2596539097100381</v>
+        <v>2.599849710609341</v>
       </c>
       <c r="G7" t="n">
-        <v>1.665692680449914</v>
+        <v>15.76910579061132</v>
       </c>
       <c r="H7" t="n">
-        <v>1.320589581494891</v>
+        <v>12.82383617852208</v>
       </c>
       <c r="I7" t="n">
-        <v>2.071245343384731</v>
+        <v>23.27491724299527</v>
       </c>
       <c r="J7" t="n">
-        <v>2.253722774321588</v>
+        <v>22.6997708216553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.15860321248906</v>
+        <v>16.29768755581978</v>
       </c>
       <c r="C8" t="n">
-        <v>2.880916242049621</v>
+        <v>14.33096792174175</v>
       </c>
       <c r="D8" t="n">
-        <v>9.640000000000001</v>
+        <v>13.72</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8221993584825283</v>
+        <v>2.687406357533667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5627651255239225</v>
+        <v>2.360031313591555</v>
       </c>
       <c r="G8" t="n">
-        <v>2.592815824202912</v>
+        <v>12.47091012373386</v>
       </c>
       <c r="H8" t="n">
-        <v>1.770800798901676</v>
+        <v>10.81165771892632</v>
       </c>
       <c r="I8" t="n">
-        <v>4.518433010305863</v>
+        <v>19.8622924728839</v>
       </c>
       <c r="J8" t="n">
-        <v>3.740438269464866</v>
+        <v>19.70026133823401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.49955175283417</v>
+        <v>5.703110359847686</v>
       </c>
       <c r="C9" t="n">
-        <v>46.10702309423105</v>
+        <v>6.577643725329101</v>
       </c>
       <c r="D9" t="n">
-        <v>7.36</v>
+        <v>-13.3</v>
       </c>
       <c r="E9" t="n">
-        <v>4.600843825578137</v>
+        <v>1.09282511075977</v>
       </c>
       <c r="F9" t="n">
-        <v>4.008708384419597</v>
+        <v>1.534743313850334</v>
       </c>
       <c r="G9" t="n">
-        <v>42.12272680281485</v>
+        <v>4.062626644343157</v>
       </c>
       <c r="H9" t="n">
-        <v>39.02802526527248</v>
+        <v>3.943633214742037</v>
       </c>
       <c r="I9" t="n">
-        <v>53.20889909986828</v>
+        <v>6.869378710018135</v>
       </c>
       <c r="J9" t="n">
-        <v>53.60833054603297</v>
+        <v>9.703175162713141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.08604011212655</v>
+        <v>7.481838111241871</v>
       </c>
       <c r="C10" t="n">
-        <v>15.03665972802341</v>
+        <v>6.603797331214796</v>
       </c>
       <c r="D10" t="n">
-        <v>6.98</v>
+        <v>13.3</v>
       </c>
       <c r="E10" t="n">
-        <v>3.201171436064249</v>
+        <v>1.229843535892876</v>
       </c>
       <c r="F10" t="n">
-        <v>2.250497340920094</v>
+        <v>1.443216727920467</v>
       </c>
       <c r="G10" t="n">
-        <v>12.97448523173522</v>
+        <v>6.35485952665363</v>
       </c>
       <c r="H10" t="n">
-        <v>10.56957509659715</v>
+        <v>4.836852083964279</v>
       </c>
       <c r="I10" t="n">
-        <v>21.00672031196522</v>
+        <v>9.308036269521525</v>
       </c>
       <c r="J10" t="n">
-        <v>18.61217185673556</v>
+        <v>9.861793959929365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9609187027896855</v>
+        <v>4.190587893184319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.901422072927281</v>
+        <v>3.759053938736459</v>
       </c>
       <c r="D11" t="n">
-        <v>6.6</v>
+        <v>11.48</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2367862344163004</v>
+        <v>0.5072586156924559</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1525901794479344</v>
+        <v>0.7494590780218178</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7313454809930368</v>
+        <v>3.638382085861303</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6734456725473976</v>
+        <v>2.839044486159795</v>
       </c>
       <c r="I11" t="n">
-        <v>1.30058368546047</v>
+        <v>4.804594328922519</v>
       </c>
       <c r="J11" t="n">
-        <v>1.224659350590587</v>
+        <v>5.881614422611839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.007556511189613</v>
+        <v>122.963722788889</v>
       </c>
       <c r="C12" t="n">
-        <v>3.774916496715337</v>
+        <v>138.4688335147295</v>
       </c>
       <c r="D12" t="n">
-        <v>6.16</v>
+        <v>-11.2</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4549546992467952</v>
+        <v>17.08146643238861</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5703837084390559</v>
+        <v>19.48084874496683</v>
       </c>
       <c r="G12" t="n">
-        <v>3.571310515787982</v>
+        <v>101.7708958032042</v>
       </c>
       <c r="H12" t="n">
-        <v>2.51995960069552</v>
+        <v>102.8033536530725</v>
       </c>
       <c r="I12" t="n">
-        <v>4.698179466179818</v>
+        <v>144.4367571909444</v>
       </c>
       <c r="J12" t="n">
-        <v>4.530562029381954</v>
+        <v>180.4813820787697</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.200243546307693</v>
+        <v>15.1119371439948</v>
       </c>
       <c r="C13" t="n">
-        <v>7.732909696259091</v>
+        <v>13.60820068477626</v>
       </c>
       <c r="D13" t="n">
-        <v>6.04</v>
+        <v>11.05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.70276026153433</v>
+        <v>0.8833078960029701</v>
       </c>
       <c r="F13" t="n">
-        <v>1.170296210557265</v>
+        <v>2.582489442759605</v>
       </c>
       <c r="G13" t="n">
-        <v>7.261019965689508</v>
+        <v>14.14144742805066</v>
       </c>
       <c r="H13" t="n">
-        <v>5.805588614730855</v>
+        <v>10.71150478744965</v>
       </c>
       <c r="I13" t="n">
-        <v>9.135373454959115</v>
+        <v>16.54491452926171</v>
       </c>
       <c r="J13" t="n">
-        <v>10.2944941937462</v>
+        <v>20.53321796150712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.73088532487562</v>
+        <v>6.373011028216816</v>
       </c>
       <c r="C14" t="n">
-        <v>43.17147613817603</v>
+        <v>5.739298815154657</v>
       </c>
       <c r="D14" t="n">
-        <v>5.93</v>
+        <v>11.04</v>
       </c>
       <c r="E14" t="n">
-        <v>5.452293258775662</v>
+        <v>0.85878033158883</v>
       </c>
       <c r="F14" t="n">
-        <v>4.440912272125193</v>
+        <v>0.9001153277896506</v>
       </c>
       <c r="G14" t="n">
-        <v>36.69606758450261</v>
+        <v>5.790565687707545</v>
       </c>
       <c r="H14" t="n">
-        <v>36.19713630984626</v>
+        <v>4.259064489910421</v>
       </c>
       <c r="I14" t="n">
-        <v>49.80798205973077</v>
+        <v>7.866953742248564</v>
       </c>
       <c r="J14" t="n">
-        <v>50.55436859484064</v>
+        <v>7.601806851232762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.206364733041904</v>
+        <v>1.873341718418323</v>
       </c>
       <c r="C15" t="n">
-        <v>3.987713324156904</v>
+        <v>1.697504142173806</v>
       </c>
       <c r="D15" t="n">
-        <v>5.48</v>
+        <v>10.36</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4700443957591353</v>
+        <v>0.1612638189510597</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6664777841057521</v>
+        <v>0.2596539097100381</v>
       </c>
       <c r="G15" t="n">
-        <v>3.686077918515553</v>
+        <v>1.665692680449914</v>
       </c>
       <c r="H15" t="n">
-        <v>3.188608761496579</v>
+        <v>1.320589581494891</v>
       </c>
       <c r="I15" t="n">
-        <v>4.835702171639487</v>
+        <v>2.071245343384731</v>
       </c>
       <c r="J15" t="n">
-        <v>5.529820850995169</v>
+        <v>2.253722774321588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.84343927553475</v>
+        <v>102.0939646532768</v>
       </c>
       <c r="C16" t="n">
-        <v>29.41445596678595</v>
+        <v>92.7280810793589</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.34</v>
+        <v>10.1</v>
       </c>
       <c r="E16" t="n">
-        <v>2.63404705031283</v>
+        <v>6.710716388622001</v>
       </c>
       <c r="F16" t="n">
-        <v>2.57167903084503</v>
+        <v>15.15809757671489</v>
       </c>
       <c r="G16" t="n">
-        <v>25.55192229154174</v>
+        <v>90.49077213206543</v>
       </c>
       <c r="H16" t="n">
-        <v>27.00485365033244</v>
+        <v>61.93822379237837</v>
       </c>
       <c r="I16" t="n">
-        <v>30.95724513744638</v>
+        <v>106.9802355708031</v>
       </c>
       <c r="J16" t="n">
-        <v>35.4033762461597</v>
+        <v>114.8130758903293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.44855710706</v>
+        <v>16.14074578077843</v>
       </c>
       <c r="C17" t="n">
-        <v>58.3989538125645</v>
+        <v>17.91068614404699</v>
       </c>
       <c r="D17" t="n">
-        <v>5.22</v>
+        <v>-9.880000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>8.618487716131149</v>
+        <v>3.892909508375007</v>
       </c>
       <c r="F17" t="n">
-        <v>6.811233453938179</v>
+        <v>3.07983251599475</v>
       </c>
       <c r="G17" t="n">
-        <v>47.39315316917637</v>
+        <v>12.05222796306558</v>
       </c>
       <c r="H17" t="n">
-        <v>48.87930462878744</v>
+        <v>11.88999072879968</v>
       </c>
       <c r="I17" t="n">
-        <v>71.06316232257117</v>
+        <v>21.80776558657645</v>
       </c>
       <c r="J17" t="n">
-        <v>75.29680392360449</v>
+        <v>24.26887646679531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76.40351544995981</v>
+        <v>3.15860321248906</v>
       </c>
       <c r="C18" t="n">
-        <v>73.19565687624473</v>
+        <v>2.880916242049621</v>
       </c>
       <c r="D18" t="n">
-        <v>4.38</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>8.310788531599425</v>
+        <v>0.8221993584825283</v>
       </c>
       <c r="F18" t="n">
-        <v>6.899493890599562</v>
+        <v>0.5627651255239225</v>
       </c>
       <c r="G18" t="n">
-        <v>63.33135139836113</v>
+        <v>2.592815824202912</v>
       </c>
       <c r="H18" t="n">
-        <v>62.80920872603785</v>
+        <v>1.770800798901676</v>
       </c>
       <c r="I18" t="n">
-        <v>86.43441382391984</v>
+        <v>4.518433010305863</v>
       </c>
       <c r="J18" t="n">
-        <v>90.39360183484477</v>
+        <v>3.740438269464866</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.86519903015774</v>
+        <v>670.369848592433</v>
       </c>
       <c r="C19" t="n">
-        <v>68.86519958746355</v>
+        <v>618.5263495506432</v>
       </c>
       <c r="D19" t="n">
-        <v>4.36</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>9.020386757162111</v>
+        <v>76.01276641708533</v>
       </c>
       <c r="F19" t="n">
-        <v>7.302380083452603</v>
+        <v>58.91637759134429</v>
       </c>
       <c r="G19" t="n">
-        <v>56.90435985426416</v>
+        <v>558.8583090183109</v>
       </c>
       <c r="H19" t="n">
-        <v>58.83999901285285</v>
+        <v>517.0536683222591</v>
       </c>
       <c r="I19" t="n">
-        <v>81.39846689023015</v>
+        <v>763.6757247237427</v>
       </c>
       <c r="J19" t="n">
-        <v>86.01084047212149</v>
+        <v>730.0686585647339</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.98330822931014</v>
+        <v>49.49955175283417</v>
       </c>
       <c r="C20" t="n">
-        <v>88.88272193246979</v>
+        <v>46.10702309423105</v>
       </c>
       <c r="D20" t="n">
-        <v>3.49</v>
+        <v>7.36</v>
       </c>
       <c r="E20" t="n">
-        <v>8.807578515860762</v>
+        <v>4.600843825578137</v>
       </c>
       <c r="F20" t="n">
-        <v>7.420429236505766</v>
+        <v>4.008708384419597</v>
       </c>
       <c r="G20" t="n">
-        <v>77.90142016074405</v>
+        <v>42.12272680281485</v>
       </c>
       <c r="H20" t="n">
-        <v>77.39288774787707</v>
+        <v>39.02802526527248</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2756645356831</v>
+        <v>53.20889909986828</v>
       </c>
       <c r="J20" t="n">
-        <v>106.1424213557585</v>
+        <v>53.60833054603297</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.43767060762536</v>
+        <v>29.68093707286463</v>
       </c>
       <c r="C21" t="n">
-        <v>57.456057502223</v>
+        <v>27.7173080173799</v>
       </c>
       <c r="D21" t="n">
-        <v>3.45</v>
+        <v>7.08</v>
       </c>
       <c r="E21" t="n">
-        <v>5.421548081900837</v>
+        <v>3.166975917384249</v>
       </c>
       <c r="F21" t="n">
-        <v>5.36924136029037</v>
+        <v>3.482978821553588</v>
       </c>
       <c r="G21" t="n">
-        <v>55.15555444563674</v>
+        <v>26.0159775353907</v>
       </c>
       <c r="H21" t="n">
-        <v>49.52870722955191</v>
+        <v>21.2598685183541</v>
       </c>
       <c r="I21" t="n">
-        <v>68.38980946626803</v>
+        <v>33.45054845947485</v>
       </c>
       <c r="J21" t="n">
-        <v>67.89295746332333</v>
+        <v>33.86164168926985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.19618060094641</v>
+        <v>16.08604011212655</v>
       </c>
       <c r="C22" t="n">
-        <v>18.56048586333947</v>
+        <v>15.03665972802341</v>
       </c>
       <c r="D22" t="n">
-        <v>3.42</v>
+        <v>6.98</v>
       </c>
       <c r="E22" t="n">
-        <v>1.1366072951711</v>
+        <v>3.201171436064249</v>
       </c>
       <c r="F22" t="n">
-        <v>1.832208691675772</v>
+        <v>2.250497340920094</v>
       </c>
       <c r="G22" t="n">
-        <v>18.27335084038939</v>
+        <v>12.97448523173522</v>
       </c>
       <c r="H22" t="n">
-        <v>14.85787230187566</v>
+        <v>10.56957509659715</v>
       </c>
       <c r="I22" t="n">
-        <v>20.97985359133439</v>
+        <v>21.00672031196522</v>
       </c>
       <c r="J22" t="n">
-        <v>21.74102804164049</v>
+        <v>18.61217185673556</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_low_pressures_received_per_100_pressures</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.289414275454323</v>
+        <v>851.3368647385936</v>
       </c>
       <c r="C23" t="n">
-        <v>6.102494302667355</v>
+        <v>795.7717164634572</v>
       </c>
       <c r="D23" t="n">
-        <v>3.06</v>
+        <v>6.98</v>
       </c>
       <c r="E23" t="n">
-        <v>1.336168853509214</v>
+        <v>45.73096502255604</v>
       </c>
       <c r="F23" t="n">
-        <v>1.235763357425931</v>
+        <v>60.14450588746526</v>
       </c>
       <c r="G23" t="n">
-        <v>4.899825388183385</v>
+        <v>796.4491980871289</v>
       </c>
       <c r="H23" t="n">
-        <v>4.486489092585835</v>
+        <v>665.2846020968549</v>
       </c>
       <c r="I23" t="n">
-        <v>7.998628838554469</v>
+        <v>910.8684646340812</v>
       </c>
       <c r="J23" t="n">
-        <v>8.62803602711125</v>
+        <v>907.0593710558064</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.6818443840906</v>
+        <v>24.7915499948604</v>
       </c>
       <c r="C24" t="n">
-        <v>74.77471050276974</v>
+        <v>23.22423998298575</v>
       </c>
       <c r="D24" t="n">
-        <v>2.55</v>
+        <v>6.75</v>
       </c>
       <c r="E24" t="n">
-        <v>5.711676155720379</v>
+        <v>2.83200780184727</v>
       </c>
       <c r="F24" t="n">
-        <v>5.580762498573949</v>
+        <v>2.90870962388767</v>
       </c>
       <c r="G24" t="n">
-        <v>72.61601666353434</v>
+        <v>21.89746886108041</v>
       </c>
       <c r="H24" t="n">
-        <v>66.82763085396923</v>
+        <v>18.24127577586004</v>
       </c>
       <c r="I24" t="n">
-        <v>86.10240574027532</v>
+        <v>28.52332540693959</v>
       </c>
       <c r="J24" t="n">
-        <v>84.49815905854061</v>
+        <v>28.67534891446692</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.659676255048169</v>
+        <v>0.9609187027896855</v>
       </c>
       <c r="C25" t="n">
-        <v>7.855978866600681</v>
+        <v>0.901422072927281</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.5</v>
+        <v>6.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3552162575871802</v>
+        <v>0.2367862344163004</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7563142189192547</v>
+        <v>0.1525901794479344</v>
       </c>
       <c r="G25" t="n">
-        <v>7.183110580856982</v>
+        <v>0.7313454809930368</v>
       </c>
       <c r="H25" t="n">
-        <v>6.786314895637689</v>
+        <v>0.6734456725473976</v>
       </c>
       <c r="I25" t="n">
-        <v>8.119275033781424</v>
+        <v>1.30058368546047</v>
       </c>
       <c r="J25" t="n">
-        <v>10.04971318632936</v>
+        <v>1.224659350590587</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.461505756308612</v>
+        <v>562.4689963111389</v>
       </c>
       <c r="C26" t="n">
-        <v>1.497619421302244</v>
+        <v>527.811483563939</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.41</v>
+        <v>6.57</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2840610423958587</v>
+        <v>80.78715175027136</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2473010217369913</v>
+        <v>56.76658782148485</v>
       </c>
       <c r="G26" t="n">
-        <v>1.148121825000276</v>
+        <v>440.7773597933162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.900576901709645</v>
+        <v>426.8035626587789</v>
       </c>
       <c r="I26" t="n">
-        <v>1.791656596778017</v>
+        <v>661.2985573033559</v>
       </c>
       <c r="J26" t="n">
-        <v>1.857412815653377</v>
+        <v>624.2399218842875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.63476964485952</v>
+        <v>89.53916647682388</v>
       </c>
       <c r="C27" t="n">
-        <v>69.0482171369524</v>
+        <v>84.20873614637166</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.05</v>
+        <v>6.33</v>
       </c>
       <c r="E27" t="n">
-        <v>2.71168261353126</v>
+        <v>6.20379774368269</v>
       </c>
       <c r="F27" t="n">
-        <v>5.841601565803325</v>
+        <v>10.32007940149784</v>
       </c>
       <c r="G27" t="n">
-        <v>65.23111199384699</v>
+        <v>79.60676702353415</v>
       </c>
       <c r="H27" t="n">
-        <v>63.5514779195827</v>
+        <v>62.20154045408412</v>
       </c>
       <c r="I27" t="n">
-        <v>72.13477933062192</v>
+        <v>96.01341772261259</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09633623854005</v>
+        <v>109.3252042935068</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.06582947593299</v>
+        <v>4.007556511189613</v>
       </c>
       <c r="C28" t="n">
-        <v>67.29667519656961</v>
+        <v>3.774916496715337</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.83</v>
+        <v>6.16</v>
       </c>
       <c r="E28" t="n">
-        <v>2.811434433557789</v>
+        <v>0.4549546992467952</v>
       </c>
       <c r="F28" t="n">
-        <v>5.676647583162571</v>
+        <v>0.5703837084390559</v>
       </c>
       <c r="G28" t="n">
-        <v>63.14870333360837</v>
+        <v>3.571310515787982</v>
       </c>
       <c r="H28" t="n">
-        <v>62.55136060799985</v>
+        <v>2.51995960069552</v>
       </c>
       <c r="I28" t="n">
-        <v>70.64961639133286</v>
+        <v>4.698179466179818</v>
       </c>
       <c r="J28" t="n">
-        <v>86.09484505433622</v>
+        <v>4.530562029381954</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>count_ball_retentions_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>67.66736373022863</v>
+        <v>170.7140523335921</v>
       </c>
       <c r="C29" t="n">
-        <v>68.9044087963952</v>
+        <v>181.8437272157989</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.8</v>
+        <v>-6.12</v>
       </c>
       <c r="E29" t="n">
-        <v>2.925586725297233</v>
+        <v>10.73608524769346</v>
       </c>
       <c r="F29" t="n">
-        <v>5.556919126102559</v>
+        <v>9.033655120501924</v>
       </c>
       <c r="G29" t="n">
-        <v>64.38902207808518</v>
+        <v>155.6275090963165</v>
       </c>
       <c r="H29" t="n">
-        <v>62.40707135024284</v>
+        <v>164.9179514317769</v>
       </c>
       <c r="I29" t="n">
-        <v>71.90588202498414</v>
+        <v>180.1848937587879</v>
       </c>
       <c r="J29" t="n">
-        <v>86.12033288399269</v>
+        <v>196.3709386944265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.2718933290428</v>
+        <v>8.200243546307693</v>
       </c>
       <c r="C30" t="n">
-        <v>83.78009593268303</v>
+        <v>7.732909696259091</v>
       </c>
       <c r="D30" t="n">
-        <v>1.78</v>
+        <v>6.04</v>
       </c>
       <c r="E30" t="n">
-        <v>4.966352211866593</v>
+        <v>0.70276026153433</v>
       </c>
       <c r="F30" t="n">
-        <v>6.351611047319945</v>
+        <v>1.170296210557265</v>
       </c>
       <c r="G30" t="n">
-        <v>79.81651346772686</v>
+        <v>7.261019965689508</v>
       </c>
       <c r="H30" t="n">
-        <v>73.28637246908238</v>
+        <v>5.805588614730855</v>
       </c>
       <c r="I30" t="n">
-        <v>93.18325158674419</v>
+        <v>9.135373454959115</v>
       </c>
       <c r="J30" t="n">
-        <v>92.1323767243571</v>
+        <v>10.2944941937462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_per_match</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>117.5341365238099</v>
+        <v>45.73088532487562</v>
       </c>
       <c r="C31" t="n">
-        <v>115.5365121148684</v>
+        <v>43.17147613817603</v>
       </c>
       <c r="D31" t="n">
-        <v>1.73</v>
+        <v>5.93</v>
       </c>
       <c r="E31" t="n">
-        <v>5.460722390397343</v>
+        <v>5.452293258775662</v>
       </c>
       <c r="F31" t="n">
-        <v>7.273890019106632</v>
+        <v>4.440912272125193</v>
       </c>
       <c r="G31" t="n">
-        <v>112.6087244898273</v>
+        <v>36.69606758450261</v>
       </c>
       <c r="H31" t="n">
-        <v>103.5803102156773</v>
+        <v>36.19713630984626</v>
       </c>
       <c r="I31" t="n">
-        <v>126.7737908823409</v>
+        <v>49.80798205973077</v>
       </c>
       <c r="J31" t="n">
-        <v>127.1386309356154</v>
+        <v>50.55436859484064</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.14009536969377</v>
+        <v>46.86659329257358</v>
       </c>
       <c r="C32" t="n">
-        <v>16.85865807499576</v>
+        <v>44.28044290473652</v>
       </c>
       <c r="D32" t="n">
-        <v>1.67</v>
+        <v>5.84</v>
       </c>
       <c r="E32" t="n">
-        <v>1.847941916832071</v>
+        <v>4.644387583537864</v>
       </c>
       <c r="F32" t="n">
-        <v>1.702696334834557</v>
+        <v>5.3309180940598</v>
       </c>
       <c r="G32" t="n">
-        <v>14.93942197761653</v>
+        <v>39.14644342594369</v>
       </c>
       <c r="H32" t="n">
-        <v>13.37155710068285</v>
+        <v>37.79184930330217</v>
       </c>
       <c r="I32" t="n">
-        <v>19.35346434851416</v>
+        <v>51.35766290335813</v>
       </c>
       <c r="J32" t="n">
-        <v>19.37757385687885</v>
+        <v>55.12941858073101</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.2622431947671</v>
+        <v>35.34017185197938</v>
       </c>
       <c r="C33" t="n">
-        <v>31.75641618218544</v>
+        <v>37.50826178970418</v>
       </c>
       <c r="D33" t="n">
-        <v>1.59</v>
+        <v>-5.78</v>
       </c>
       <c r="E33" t="n">
-        <v>2.164363591174755</v>
+        <v>7.71881589523105</v>
       </c>
       <c r="F33" t="n">
-        <v>2.911228869671704</v>
+        <v>6.504290077590197</v>
       </c>
       <c r="G33" t="n">
-        <v>29.27850656627307</v>
+        <v>25.75889341480109</v>
       </c>
       <c r="H33" t="n">
-        <v>27.20531506375753</v>
+        <v>26.23451080022099</v>
       </c>
       <c r="I33" t="n">
-        <v>34.90734468935121</v>
+        <v>44.94069525811113</v>
       </c>
       <c r="J33" t="n">
-        <v>37.59112842312931</v>
+        <v>52.10516954022672</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.03241557216747</v>
+        <v>4.206364733041904</v>
       </c>
       <c r="C34" t="n">
-        <v>29.45111304321875</v>
+        <v>3.987713324156904</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.42</v>
+        <v>5.48</v>
       </c>
       <c r="E34" t="n">
-        <v>1.895486112947568</v>
+        <v>0.4700443957591353</v>
       </c>
       <c r="F34" t="n">
-        <v>1.978666891629772</v>
+        <v>0.6664777841057521</v>
       </c>
       <c r="G34" t="n">
-        <v>27.10915518123524</v>
+        <v>3.686077918515553</v>
       </c>
       <c r="H34" t="n">
-        <v>25.49606773408551</v>
+        <v>3.188608761496579</v>
       </c>
       <c r="I34" t="n">
-        <v>31.9915056221884</v>
+        <v>4.835702171639487</v>
       </c>
       <c r="J34" t="n">
-        <v>32.7426562871672</v>
+        <v>5.529820850995169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_high_pressures_received_per_30_min_tip</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.058129895141162</v>
+        <v>240.5172587393626</v>
       </c>
       <c r="C35" t="n">
-        <v>9.155322920628318</v>
+        <v>254.3715093954937</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.06</v>
+        <v>-5.45</v>
       </c>
       <c r="E35" t="n">
-        <v>1.699702073960716</v>
+        <v>16.28406099666731</v>
       </c>
       <c r="F35" t="n">
-        <v>1.456285454215779</v>
+        <v>18.35421695935473</v>
       </c>
       <c r="G35" t="n">
-        <v>7.350404064829266</v>
+        <v>221.7679321495578</v>
       </c>
       <c r="H35" t="n">
-        <v>6.33735162143264</v>
+        <v>220.6228051343256</v>
       </c>
       <c r="I35" t="n">
-        <v>10.85968117777743</v>
+        <v>256.9535045843603</v>
       </c>
       <c r="J35" t="n">
-        <v>11.34950996723264</v>
+        <v>299.5038612564111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67.89836563524774</v>
+        <v>27.84343927553475</v>
       </c>
       <c r="C36" t="n">
-        <v>68.57840949351267</v>
+        <v>29.41445596678595</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.99</v>
+        <v>-5.34</v>
       </c>
       <c r="E36" t="n">
-        <v>1.770809242177174</v>
+        <v>2.63404705031283</v>
       </c>
       <c r="F36" t="n">
-        <v>6.14111534299896</v>
+        <v>2.57167903084503</v>
       </c>
       <c r="G36" t="n">
-        <v>66.27908978455123</v>
+        <v>25.55192229154174</v>
       </c>
       <c r="H36" t="n">
-        <v>62.57216853646855</v>
+        <v>27.00485365033244</v>
       </c>
       <c r="I36" t="n">
-        <v>70.58915882190381</v>
+        <v>30.95724513744638</v>
       </c>
       <c r="J36" t="n">
-        <v>88.26619257964617</v>
+        <v>35.4033762461597</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.012331557587389</v>
+        <v>61.44855710706</v>
       </c>
       <c r="C37" t="n">
-        <v>2.983472394947507</v>
+        <v>58.3989538125645</v>
       </c>
       <c r="D37" t="n">
-        <v>0.97</v>
+        <v>5.22</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2814608637938387</v>
+        <v>8.618487716131149</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4241263044196913</v>
+        <v>6.811233453938179</v>
       </c>
       <c r="G37" t="n">
-        <v>2.576501676559058</v>
+        <v>47.39315316917637</v>
       </c>
       <c r="H37" t="n">
-        <v>2.104960623294938</v>
+        <v>48.87930462878744</v>
       </c>
       <c r="I37" t="n">
-        <v>3.364067195655435</v>
+        <v>71.06316232257117</v>
       </c>
       <c r="J37" t="n">
-        <v>3.776752541988117</v>
+        <v>75.29680392360449</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_medium_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.979033697752797</v>
+        <v>43.33229326323041</v>
       </c>
       <c r="C38" t="n">
-        <v>7.910556348027777</v>
+        <v>45.66517723605286</v>
       </c>
       <c r="D38" t="n">
-        <v>0.87</v>
+        <v>-5.11</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8206016782978521</v>
+        <v>3.772136476342346</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7980035516661185</v>
+        <v>7.557249963989602</v>
       </c>
       <c r="G38" t="n">
-        <v>7.109217823106871</v>
+        <v>39.12912441615993</v>
       </c>
       <c r="H38" t="n">
-        <v>6.517117584055092</v>
+        <v>34.91408266132634</v>
       </c>
       <c r="I38" t="n">
-        <v>9.063585489354924</v>
+        <v>47.52302705048959</v>
       </c>
       <c r="J38" t="n">
-        <v>9.097771994944228</v>
+        <v>67.39278015517294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.1181091991524</v>
+        <v>48.4091333604715</v>
       </c>
       <c r="C39" t="n">
-        <v>20.01752234500624</v>
+        <v>46.15768860016794</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5</v>
+        <v>4.88</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7579800974819222</v>
+        <v>9.0837729911773</v>
       </c>
       <c r="F39" t="n">
-        <v>1.680498890960334</v>
+        <v>8.740031662606885</v>
       </c>
       <c r="G39" t="n">
-        <v>19.43024119312445</v>
+        <v>37.5475023622216</v>
       </c>
       <c r="H39" t="n">
-        <v>17.36696500852356</v>
+        <v>27.43513257577807</v>
       </c>
       <c r="I39" t="n">
-        <v>20.99706030647988</v>
+        <v>60.10913909833849</v>
       </c>
       <c r="J39" t="n">
-        <v>23.74895712752945</v>
+        <v>65.60285901791634</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>count_low_pressures_received_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>37.84967774337643</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36.11089173714128</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.38651634087292</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.390209482729081</v>
+      </c>
+      <c r="G40" t="n">
+        <v>32.93527472841044</v>
+      </c>
+      <c r="H40" t="n">
+        <v>26.52210431135531</v>
+      </c>
+      <c r="I40" t="n">
+        <v>41.34737437981702</v>
+      </c>
+      <c r="J40" t="n">
+        <v>44.00752899057465</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>150.7025585618108</v>
+      </c>
+      <c r="C41" t="n">
+        <v>158.1292099529002</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14.6929340871249</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.68177510295477</v>
+      </c>
+      <c r="G41" t="n">
+        <v>131.6400846130409</v>
+      </c>
+      <c r="H41" t="n">
+        <v>140.6953291394262</v>
+      </c>
+      <c r="I41" t="n">
+        <v>162.5158209336944</v>
+      </c>
+      <c r="J41" t="n">
+        <v>188.9565452252127</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>694.4990133838908</v>
+      </c>
+      <c r="C42" t="n">
+        <v>663.617773496413</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E42" t="n">
+        <v>60.1416598702403</v>
+      </c>
+      <c r="F42" t="n">
+        <v>57.01266830541361</v>
+      </c>
+      <c r="G42" t="n">
+        <v>610.0448516062869</v>
+      </c>
+      <c r="H42" t="n">
+        <v>560.8698916944675</v>
+      </c>
+      <c r="I42" t="n">
+        <v>769.7081664375534</v>
+      </c>
+      <c r="J42" t="n">
+        <v>761.1449558970885</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>76.40351544995981</v>
+      </c>
+      <c r="C43" t="n">
+        <v>73.19565687624473</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.310788531599425</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6.899493890599562</v>
+      </c>
+      <c r="G43" t="n">
+        <v>63.33135139836113</v>
+      </c>
+      <c r="H43" t="n">
+        <v>62.80920872603785</v>
+      </c>
+      <c r="I43" t="n">
+        <v>86.43441382391984</v>
+      </c>
+      <c r="J43" t="n">
+        <v>90.39360183484477</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>71.86519903015774</v>
+      </c>
+      <c r="C44" t="n">
+        <v>68.86519958746355</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.020386757162111</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.302380083452603</v>
+      </c>
+      <c r="G44" t="n">
+        <v>56.90435985426416</v>
+      </c>
+      <c r="H44" t="n">
+        <v>58.83999901285285</v>
+      </c>
+      <c r="I44" t="n">
+        <v>81.39846689023015</v>
+      </c>
+      <c r="J44" t="n">
+        <v>86.01084047212149</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>115.1180935189666</v>
+      </c>
+      <c r="C45" t="n">
+        <v>120.0507054605149</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.12334190602819</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.745876113812908</v>
+      </c>
+      <c r="G45" t="n">
+        <v>102.3767371589951</v>
+      </c>
+      <c r="H45" t="n">
+        <v>109.5351795585512</v>
+      </c>
+      <c r="I45" t="n">
+        <v>124.942129912733</v>
+      </c>
+      <c r="J45" t="n">
+        <v>131.7406258043271</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>40.17236613513634</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41.87579973515285</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8.635299403434949</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7.358021379617155</v>
+      </c>
+      <c r="G46" t="n">
+        <v>31.36330015928802</v>
+      </c>
+      <c r="H46" t="n">
+        <v>33.22345589530778</v>
+      </c>
+      <c r="I46" t="n">
+        <v>53.41168280831295</v>
+      </c>
+      <c r="J46" t="n">
+        <v>54.96716456749866</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>69.80285556525145</v>
+      </c>
+      <c r="C47" t="n">
+        <v>72.52896794239</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6.408587070234235</v>
+      </c>
+      <c r="F47" t="n">
+        <v>11.17468939166654</v>
+      </c>
+      <c r="G47" t="n">
+        <v>61.2025152188892</v>
+      </c>
+      <c r="H47" t="n">
+        <v>55.70747614773327</v>
+      </c>
+      <c r="I47" t="n">
+        <v>78.04520839287841</v>
+      </c>
+      <c r="J47" t="n">
+        <v>103.1358293818448</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_match</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>91.98330822931014</v>
+      </c>
+      <c r="C48" t="n">
+        <v>88.88272193246979</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.807578515860762</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7.420429236505766</v>
+      </c>
+      <c r="G48" t="n">
+        <v>77.90142016074405</v>
+      </c>
+      <c r="H48" t="n">
+        <v>77.39288774787707</v>
+      </c>
+      <c r="I48" t="n">
+        <v>102.2756645356831</v>
+      </c>
+      <c r="J48" t="n">
+        <v>106.1424213557585</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>59.43767060762536</v>
+      </c>
+      <c r="C49" t="n">
+        <v>57.456057502223</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.421548081900837</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.36924136029037</v>
+      </c>
+      <c r="G49" t="n">
+        <v>55.15555444563674</v>
+      </c>
+      <c r="H49" t="n">
+        <v>49.52870722955191</v>
+      </c>
+      <c r="I49" t="n">
+        <v>68.38980946626803</v>
+      </c>
+      <c r="J49" t="n">
+        <v>67.89295746332333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>19.19618060094641</v>
+      </c>
+      <c r="C50" t="n">
+        <v>18.56048586333947</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.1366072951711</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.832208691675772</v>
+      </c>
+      <c r="G50" t="n">
+        <v>18.27335084038939</v>
+      </c>
+      <c r="H50" t="n">
+        <v>14.85787230187566</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20.97985359133439</v>
+      </c>
+      <c r="J50" t="n">
+        <v>21.74102804164049</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6.289414275454323</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.102494302667355</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.336168853509214</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.235763357425931</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.899825388183385</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.486489092585835</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7.998628838554469</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8.62803602711125</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>178.1066322470723</v>
+      </c>
+      <c r="C52" t="n">
+        <v>183.699038227469</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-3.04</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7.408483197150432</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10.78391302259115</v>
+      </c>
+      <c r="G52" t="n">
+        <v>168.4800685624234</v>
+      </c>
+      <c r="H52" t="n">
+        <v>165.2612580934932</v>
+      </c>
+      <c r="I52" t="n">
+        <v>188.8002365748032</v>
+      </c>
+      <c r="J52" t="n">
+        <v>206.216219367871</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>32.81076730778278</v>
+      </c>
+      <c r="C53" t="n">
+        <v>33.80068107138911</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2.93</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.56700716663951</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.323764966447492</v>
+      </c>
+      <c r="G53" t="n">
+        <v>30.24330086485044</v>
+      </c>
+      <c r="H53" t="n">
+        <v>27.33062150240037</v>
+      </c>
+      <c r="I53" t="n">
+        <v>36.77489516006633</v>
+      </c>
+      <c r="J53" t="n">
+        <v>44.62979772595437</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>8.168103777944141</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.393344834405603</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.977486708772544</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.78980123308389</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.919425119771028</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.260894156074782</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11.64345564239144</v>
+      </c>
+      <c r="J54" t="n">
+        <v>12.98814450400736</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>19.4543148011782</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18.97018349452429</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.622362785967981</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.953232595828469</v>
+      </c>
+      <c r="G55" t="n">
+        <v>18.03087499580674</v>
+      </c>
+      <c r="H55" t="n">
+        <v>14.58884792129625</v>
+      </c>
+      <c r="I55" t="n">
+        <v>21.61120591552514</v>
+      </c>
+      <c r="J55" t="n">
+        <v>25.8553758140182</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>76.6818443840906</v>
+      </c>
+      <c r="C56" t="n">
+        <v>74.77471050276974</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.711676155720379</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5.580762498573949</v>
+      </c>
+      <c r="G56" t="n">
+        <v>72.61601666353434</v>
+      </c>
+      <c r="H56" t="n">
+        <v>66.82763085396923</v>
+      </c>
+      <c r="I56" t="n">
+        <v>86.10240574027532</v>
+      </c>
+      <c r="J56" t="n">
+        <v>84.49815905854061</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7.659676255048169</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.855978866600681</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3552162575871802</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7563142189192547</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7.183110580856982</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6.786314895637689</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8.119275033781424</v>
+      </c>
+      <c r="J57" t="n">
+        <v>10.04971318632936</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>15.61546759327956</v>
+      </c>
+      <c r="C58" t="n">
+        <v>16.0166595624238</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.557310402199342</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.366481725576993</v>
+      </c>
+      <c r="G58" t="n">
+        <v>14.12050049298896</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12.24440162577778</v>
+      </c>
+      <c r="I58" t="n">
+        <v>17.9830038271484</v>
+      </c>
+      <c r="J58" t="n">
+        <v>21.33211726671897</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>30.44271084529697</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.7188696915622</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.561122610608362</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.65486003203634</v>
+      </c>
+      <c r="G59" t="n">
+        <v>26.935651621476</v>
+      </c>
+      <c r="H59" t="n">
+        <v>22.07488446254131</v>
+      </c>
+      <c r="I59" t="n">
+        <v>33.38410447747819</v>
+      </c>
+      <c r="J59" t="n">
+        <v>37.22664905842879</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.461505756308612</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.497619421302244</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2840610423958587</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2473010217369913</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.148121825000276</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.900576901709645</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.791656596778017</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.857412815653377</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>134.7752740610226</v>
+      </c>
+      <c r="C61" t="n">
+        <v>138.0335810959266</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.112041011057151</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.781394965231724</v>
+      </c>
+      <c r="G61" t="n">
+        <v>122.5086263528288</v>
+      </c>
+      <c r="H61" t="n">
+        <v>122.145711238392</v>
+      </c>
+      <c r="I61" t="n">
+        <v>144.4125720285471</v>
+      </c>
+      <c r="J61" t="n">
+        <v>152.5305347642425</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>292.0299159161447</v>
+      </c>
+      <c r="C62" t="n">
+        <v>298.7434968781132</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="E62" t="n">
+        <v>21.95476567092324</v>
+      </c>
+      <c r="F62" t="n">
+        <v>31.71895105806308</v>
+      </c>
+      <c r="G62" t="n">
+        <v>268.6169546000909</v>
+      </c>
+      <c r="H62" t="n">
+        <v>263.7709667218111</v>
+      </c>
+      <c r="I62" t="n">
+        <v>325.5958208034525</v>
+      </c>
+      <c r="J62" t="n">
+        <v>393.8633568581907</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>143.0269010670311</v>
+      </c>
+      <c r="C63" t="n">
+        <v>146.1666905946865</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.422390393440168</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8.798927667350721</v>
+      </c>
+      <c r="G63" t="n">
+        <v>135.6392204647843</v>
+      </c>
+      <c r="H63" t="n">
+        <v>131.7998167518247</v>
+      </c>
+      <c r="I63" t="n">
+        <v>151.6771551995704</v>
+      </c>
+      <c r="J63" t="n">
+        <v>164.547799902385</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>180.9670161461606</v>
+      </c>
+      <c r="C64" t="n">
+        <v>177.2453669128137</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33.72860466817455</v>
+      </c>
+      <c r="F64" t="n">
+        <v>28.06490113820274</v>
+      </c>
+      <c r="G64" t="n">
+        <v>147.1927399103384</v>
+      </c>
+      <c r="H64" t="n">
+        <v>134.6056692767116</v>
+      </c>
+      <c r="I64" t="n">
+        <v>237.590889068818</v>
+      </c>
+      <c r="J64" t="n">
+        <v>242.0697495596498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>67.63476964485952</v>
+      </c>
+      <c r="C65" t="n">
+        <v>69.0482171369524</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.71168261353126</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5.841601565803325</v>
+      </c>
+      <c r="G65" t="n">
+        <v>65.23111199384699</v>
+      </c>
+      <c r="H65" t="n">
+        <v>63.5514779195827</v>
+      </c>
+      <c r="I65" t="n">
+        <v>72.13477933062192</v>
+      </c>
+      <c r="J65" t="n">
+        <v>88.09633623854005</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>66.06582947593299</v>
+      </c>
+      <c r="C66" t="n">
+        <v>67.29667519656961</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.811434433557789</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5.676647583162571</v>
+      </c>
+      <c r="G66" t="n">
+        <v>63.14870333360837</v>
+      </c>
+      <c r="H66" t="n">
+        <v>62.55136060799985</v>
+      </c>
+      <c r="I66" t="n">
+        <v>70.64961639133286</v>
+      </c>
+      <c r="J66" t="n">
+        <v>86.09484505433622</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>pass_completion_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>67.66736373022863</v>
+      </c>
+      <c r="C67" t="n">
+        <v>68.9044087963952</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.925586725297233</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5.556919126102559</v>
+      </c>
+      <c r="G67" t="n">
+        <v>64.38902207808518</v>
+      </c>
+      <c r="H67" t="n">
+        <v>62.40707135024284</v>
+      </c>
+      <c r="I67" t="n">
+        <v>71.90588202498414</v>
+      </c>
+      <c r="J67" t="n">
+        <v>86.12033288399269</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>85.2718933290428</v>
+      </c>
+      <c r="C68" t="n">
+        <v>83.78009593268303</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.966352211866593</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.351611047319945</v>
+      </c>
+      <c r="G68" t="n">
+        <v>79.81651346772686</v>
+      </c>
+      <c r="H68" t="n">
+        <v>73.28637246908238</v>
+      </c>
+      <c r="I68" t="n">
+        <v>93.18325158674419</v>
+      </c>
+      <c r="J68" t="n">
+        <v>92.1323767243571</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>count_high_pressures_received_per_match</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>117.5341365238099</v>
+      </c>
+      <c r="C69" t="n">
+        <v>115.5365121148684</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.460722390397343</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7.273890019106632</v>
+      </c>
+      <c r="G69" t="n">
+        <v>112.6087244898273</v>
+      </c>
+      <c r="H69" t="n">
+        <v>103.5803102156773</v>
+      </c>
+      <c r="I69" t="n">
+        <v>126.7737908823409</v>
+      </c>
+      <c r="J69" t="n">
+        <v>127.1386309356154</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>17.14009536969377</v>
+      </c>
+      <c r="C70" t="n">
+        <v>16.85865807499576</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.847941916832071</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.702696334834557</v>
+      </c>
+      <c r="G70" t="n">
+        <v>14.93942197761653</v>
+      </c>
+      <c r="H70" t="n">
+        <v>13.37155710068285</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19.35346434851416</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19.37757385687885</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>32.2622431947671</v>
+      </c>
+      <c r="C71" t="n">
+        <v>31.75641618218544</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.164363591174755</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.911228869671704</v>
+      </c>
+      <c r="G71" t="n">
+        <v>29.27850656627307</v>
+      </c>
+      <c r="H71" t="n">
+        <v>27.20531506375753</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34.90734468935121</v>
+      </c>
+      <c r="J71" t="n">
+        <v>37.59112842312931</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>79.3744028564345</v>
+      </c>
+      <c r="C72" t="n">
+        <v>78.21874892990898</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.312668841234569</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.44070021620932</v>
+      </c>
+      <c r="G72" t="n">
+        <v>73.6059708044781</v>
+      </c>
+      <c r="H72" t="n">
+        <v>63.75241549369931</v>
+      </c>
+      <c r="I72" t="n">
+        <v>84.10284964635271</v>
+      </c>
+      <c r="J72" t="n">
+        <v>93.92970535401201</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>29.03241557216747</v>
+      </c>
+      <c r="C73" t="n">
+        <v>29.45111304321875</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.895486112947568</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.978666891629772</v>
+      </c>
+      <c r="G73" t="n">
+        <v>27.10915518123524</v>
+      </c>
+      <c r="H73" t="n">
+        <v>25.49606773408551</v>
+      </c>
+      <c r="I73" t="n">
+        <v>31.9915056221884</v>
+      </c>
+      <c r="J73" t="n">
+        <v>32.7426562871672</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>626.9367329393447</v>
+      </c>
+      <c r="C74" t="n">
+        <v>618.3019196637833</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>43.09493855253872</v>
+      </c>
+      <c r="F74" t="n">
+        <v>31.13107808844682</v>
+      </c>
+      <c r="G74" t="n">
+        <v>580.8974626342552</v>
+      </c>
+      <c r="H74" t="n">
+        <v>559.2378690012303</v>
+      </c>
+      <c r="I74" t="n">
+        <v>681.073548949255</v>
+      </c>
+      <c r="J74" t="n">
+        <v>684.5511710322775</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9.058129895141162</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9.155322920628318</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.699702073960716</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.456285454215779</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7.350404064829266</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6.33735162143264</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10.85968117777743</v>
+      </c>
+      <c r="J75" t="n">
+        <v>11.34950996723264</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>67.89836563524774</v>
+      </c>
+      <c r="C76" t="n">
+        <v>68.57840949351267</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.770809242177174</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6.14111534299896</v>
+      </c>
+      <c r="G76" t="n">
+        <v>66.27908978455123</v>
+      </c>
+      <c r="H76" t="n">
+        <v>62.57216853646855</v>
+      </c>
+      <c r="I76" t="n">
+        <v>70.58915882190381</v>
+      </c>
+      <c r="J76" t="n">
+        <v>88.26619257964617</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3.012331557587389</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.983472394947507</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.2814608637938387</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.4241263044196913</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.576501676559058</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.104960623294938</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.364067195655435</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.776752541988117</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7.979033697752797</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.910556348027777</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8206016782978521</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7980035516661185</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7.109217823106871</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6.517117584055092</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9.063585489354924</v>
+      </c>
+      <c r="J78" t="n">
+        <v>9.097771994944228</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>90.75690050910234</v>
+      </c>
+      <c r="C79" t="n">
+        <v>90.08121310223213</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15.59492900301987</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10.89781345897387</v>
+      </c>
+      <c r="G79" t="n">
+        <v>74.88638456458446</v>
+      </c>
+      <c r="H79" t="n">
+        <v>67.72332562481316</v>
+      </c>
+      <c r="I79" t="n">
+        <v>111.704508741622</v>
+      </c>
+      <c r="J79" t="n">
+        <v>105.4400180930072</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>357.5537490558921</v>
+      </c>
+      <c r="C80" t="n">
+        <v>360.0373482916972</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>19.15695404248631</v>
+      </c>
+      <c r="F80" t="n">
+        <v>31.30031887762588</v>
+      </c>
+      <c r="G80" t="n">
+        <v>336.2452821340677</v>
+      </c>
+      <c r="H80" t="n">
+        <v>306.8239691086215</v>
+      </c>
+      <c r="I80" t="n">
+        <v>382.8821584480361</v>
+      </c>
+      <c r="J80" t="n">
+        <v>442.1226649725991</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>112.6372801319215</v>
+      </c>
+      <c r="C81" t="n">
+        <v>113.4014914227396</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7.050970198415769</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6.931804686279323</v>
+      </c>
+      <c r="G81" t="n">
+        <v>101.6236193900295</v>
+      </c>
+      <c r="H81" t="n">
+        <v>101.8777660421857</v>
+      </c>
+      <c r="I81" t="n">
+        <v>119.5310712001837</v>
+      </c>
+      <c r="J81" t="n">
+        <v>125.0438127794043</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>760.437592797706</v>
+      </c>
+      <c r="C82" t="n">
+        <v>755.6301226904337</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E82" t="n">
+        <v>37.68166309101858</v>
+      </c>
+      <c r="F82" t="n">
+        <v>36.01937362328464</v>
+      </c>
+      <c r="G82" t="n">
+        <v>704.2223178068534</v>
+      </c>
+      <c r="H82" t="n">
+        <v>684.0556888401767</v>
+      </c>
+      <c r="I82" t="n">
+        <v>802.7586026310292</v>
+      </c>
+      <c r="J82" t="n">
+        <v>825.4964024860092</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1205.036367707447</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1212.325636161381</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>30.37008981880555</v>
+      </c>
+      <c r="F83" t="n">
+        <v>23.4126090868337</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1168.687835204172</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1170.062870915818</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1245.210436514278</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1257.703220136473</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>20.1181091991524</v>
+      </c>
+      <c r="C84" t="n">
+        <v>20.01752234500624</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7579800974819222</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.680498890960334</v>
+      </c>
+      <c r="G84" t="n">
+        <v>19.43024119312445</v>
+      </c>
+      <c r="H84" t="n">
+        <v>17.36696500852356</v>
+      </c>
+      <c r="I84" t="n">
+        <v>20.99706030647988</v>
+      </c>
+      <c r="J84" t="n">
+        <v>23.74895712752945</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10.0014156366327</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10.0508336470641</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5810353404687253</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.756066204600606</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9.577254943623712</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8.269820145424529</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10.95041607133402</v>
+      </c>
+      <c r="J85" t="n">
+        <v>13.87029153363187</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>106.5176036068604</v>
+      </c>
+      <c r="C86" t="n">
+        <v>107.0177767121611</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.6593595646034</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11.98896844527253</v>
+      </c>
+      <c r="G86" t="n">
+        <v>89.94199103380082</v>
+      </c>
+      <c r="H86" t="n">
+        <v>86.77388286353951</v>
+      </c>
+      <c r="I86" t="n">
+        <v>119.420193193696</v>
+      </c>
+      <c r="J86" t="n">
+        <v>133.1310242940772</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>189.9318543518067</v>
+      </c>
+      <c r="C87" t="n">
+        <v>190.6543042475366</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="E87" t="n">
+        <v>27.88907271433629</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20.91559271623686</v>
+      </c>
+      <c r="G87" t="n">
+        <v>156.5257644764352</v>
+      </c>
+      <c r="H87" t="n">
+        <v>156.0530097038522</v>
+      </c>
+      <c r="I87" t="n">
+        <v>220.9882148946108</v>
+      </c>
+      <c r="J87" t="n">
+        <v>231.9417323993436</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>222.8857183557609</v>
+      </c>
+      <c r="C88" t="n">
+        <v>223.6848882430994</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E88" t="n">
+        <v>18.49747075394377</v>
+      </c>
+      <c r="F88" t="n">
+        <v>28.14919700151468</v>
+      </c>
+      <c r="G88" t="n">
+        <v>206.2344790017091</v>
+      </c>
+      <c r="H88" t="n">
+        <v>185.7002595407647</v>
+      </c>
+      <c r="I88" t="n">
+        <v>252.3635723741287</v>
+      </c>
+      <c r="J88" t="n">
+        <v>278.6125435164606</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
           <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B89" t="n">
         <v>15.80552951665431</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C89" t="n">
         <v>15.77002763051491</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D89" t="n">
         <v>0.23</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E89" t="n">
         <v>0.5610181977602803</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F89" t="n">
         <v>1.38643025151252</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G89" t="n">
         <v>15.18026461482804</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H89" t="n">
         <v>14.31884863755297</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I89" t="n">
         <v>16.27455913624884</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J89" t="n">
         <v>19.61698231061488</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>count_high_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1249.477893366354</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1252.244822512379</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="E90" t="n">
+        <v>46.03028352664263</v>
+      </c>
+      <c r="F90" t="n">
+        <v>23.35827130079031</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1199.475811631375</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1204.216246060342</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1300.093197740884</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1287.396685449552</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>816.4678485514736</v>
+      </c>
+      <c r="C91" t="n">
+        <v>814.8864046490969</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E91" t="n">
+        <v>46.60314618628639</v>
+      </c>
+      <c r="F91" t="n">
+        <v>28.29000382123343</v>
+      </c>
+      <c r="G91" t="n">
+        <v>764.3037982854335</v>
+      </c>
+      <c r="H91" t="n">
+        <v>767.382466810807</v>
+      </c>
+      <c r="I91" t="n">
+        <v>872.1332595685042</v>
+      </c>
+      <c r="J91" t="n">
+        <v>865.7961307377857</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>913.0064517913021</v>
+      </c>
+      <c r="C92" t="n">
+        <v>913.5821392832679</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E92" t="n">
+        <v>35.24902830733828</v>
+      </c>
+      <c r="F92" t="n">
+        <v>31.67642671346347</v>
+      </c>
+      <c r="G92" t="n">
+        <v>863.5005496943958</v>
+      </c>
+      <c r="H92" t="n">
+        <v>848.0784481824583</v>
+      </c>
+      <c r="I92" t="n">
+        <v>947.7535892764582</v>
+      </c>
+      <c r="J92" t="n">
+        <v>960.1055964902819</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>968.5043900623037</v>
+      </c>
+      <c r="C93" t="n">
+        <v>968.0012429118084</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E93" t="n">
+        <v>32.15204002506222</v>
+      </c>
+      <c r="F93" t="n">
+        <v>32.5021807612244</v>
+      </c>
+      <c r="G93" t="n">
+        <v>935.4211632279229</v>
+      </c>
+      <c r="H93" t="n">
+        <v>917.6328437760823</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1011.932868833233</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1021.196204521672</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>891.9241443104622</v>
+      </c>
+      <c r="C94" t="n">
+        <v>892.2074742206818</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E94" t="n">
+        <v>43.64856494955588</v>
+      </c>
+      <c r="F94" t="n">
+        <v>25.4865050074539</v>
+      </c>
+      <c r="G94" t="n">
+        <v>836.42065639711</v>
+      </c>
+      <c r="H94" t="n">
+        <v>845.2740204769524</v>
+      </c>
+      <c r="I94" t="n">
+        <v>940.6584916009723</v>
+      </c>
+      <c r="J94" t="n">
+        <v>936.2089618249049</v>
       </c>
     </row>
   </sheetData>
